--- a/sprints/RecipeHub Product Backlog.xlsx
+++ b/sprints/RecipeHub Product Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan Corley\Dropbox\Work\_teaching\UWG\Capstone\Capstone Spring 2023\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Stuff\Coding\Git\RecipeHub\sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37EBA73-AC70-4990-93AE-760CDB473ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331BF749-1799-4EE5-BA83-541F190CB891}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="5415" windowWidth="28080" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,7 +457,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -485,44 +485,44 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/sprints/RecipeHub Product Backlog.xlsx
+++ b/sprints/RecipeHub Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Stuff\Coding\Git\RecipeHub\sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331BF749-1799-4EE5-BA83-541F190CB891}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6246CB7-8665-4D56-A06E-69008BB25F70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="5415" windowWidth="28080" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -429,7 +429,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>

--- a/sprints/RecipeHub Product Backlog.xlsx
+++ b/sprints/RecipeHub Product Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Stuff\Coding\Git\RecipeHub\sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6246CB7-8665-4D56-A06E-69008BB25F70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA309FA-28B1-482B-80B8-84E4238BD44F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="5415" windowWidth="28080" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="-120" windowWidth="37665" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +499,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
